--- a/시장분석용_정보/시장분석용_4577031000.xlsx
+++ b/시장분석용_정보/시장분석용_4577031000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202103 8888200371</t>
   </si>
   <si>
@@ -148,13 +238,25 @@
     <t>202202 8888200371</t>
   </si>
   <si>
-    <t>의료법인 계화의료재단  청정요양병원</t>
-  </si>
-  <si>
-    <t>전라북도 순창군 인계면 인덕로 145-19 .</t>
+    <t>202203 8888200371</t>
+  </si>
+  <si>
+    <t>202204 8888200371</t>
+  </si>
+  <si>
+    <t>202205 8888200371</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM2MSMkMSMkNiMkOTkkNTgxMzUxIzExIyQxIyQ3IyQ5MiQyNjEyMjIjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>의료법인 계화의료재단 청정요양병원</t>
+  </si>
+  <si>
+    <t>전라북도 순창군 인계면 인덕로 145-19 ()</t>
   </si>
   <si>
     <t>요양병원</t>
@@ -515,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,43 +720,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>320392</v>
+        <v>25705</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2">
         <v>202103</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2021</v>
       </c>
-      <c r="E2">
-        <v>121947683</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>8888200371</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J2">
+        <v>4577031000</v>
+      </c>
+      <c r="K2">
         <v>1388.787878787879</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>4577031000</v>
+      <c r="L2" t="s">
+        <v>81</v>
       </c>
       <c r="M2">
         <v>24406764</v>
@@ -666,96 +858,186 @@
         <v>1205925</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>90.56</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2.5</v>
+      </c>
+      <c r="V2">
+        <v>1.38</v>
+      </c>
+      <c r="W2">
+        <v>5.56</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>3.88</v>
+      </c>
+      <c r="AA2">
         <v>96.12</v>
       </c>
-      <c r="S2">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>96.12</v>
+      </c>
+      <c r="AI2">
         <v>2.5</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>1.38</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>2.5</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>97.5</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>5.56</v>
+      </c>
+      <c r="BA2">
+        <v>91.94</v>
+      </c>
+      <c r="BB2">
+        <v>2.5</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>2.5</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>9.44</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>342379</v>
+        <v>27547</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
         <v>202104</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2021</v>
       </c>
-      <c r="E3">
-        <v>121947683</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>8888200371</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J3">
+        <v>4577031000</v>
+      </c>
+      <c r="K3">
         <v>1388.787878787879</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3">
-        <v>4577031000</v>
+      <c r="L3" t="s">
+        <v>81</v>
       </c>
       <c r="M3">
         <v>32580373</v>
@@ -767,96 +1049,186 @@
         <v>2135180</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>98.98999999999999</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>1.01</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>100</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>39.03</v>
+      </c>
+      <c r="BA3">
+        <v>60.97</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>40.04</v>
+      </c>
+      <c r="BJ3">
+        <v>100</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>364410</v>
+        <v>29393</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
         <v>202105</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="E4">
-        <v>121947683</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>8888200371</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J4">
+        <v>4577031000</v>
+      </c>
+      <c r="K4">
         <v>1388.787878787879</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4">
-        <v>4577031000</v>
+      <c r="L4" t="s">
+        <v>81</v>
       </c>
       <c r="M4">
         <v>43169895</v>
@@ -868,96 +1240,186 @@
         <v>4088550</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>29.13</v>
+      </c>
+      <c r="U4">
+        <v>70.87</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>70.87</v>
+      </c>
+      <c r="Z4">
+        <v>29.13</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>100</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>100</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>100</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>100</v>
+      </c>
+      <c r="BK4">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>386523</v>
+        <v>31243</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5">
         <v>202106</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2021</v>
       </c>
-      <c r="E5">
-        <v>121947683</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>8888200371</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J5">
+        <v>4577031000</v>
+      </c>
+      <c r="K5">
         <v>1388.787878787879</v>
       </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5">
-        <v>4577031000</v>
+      <c r="L5" t="s">
+        <v>81</v>
       </c>
       <c r="M5">
         <v>30139572</v>
@@ -969,96 +1431,186 @@
         <v>1482178</v>
       </c>
       <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>4.27</v>
+      </c>
+      <c r="U5">
+        <v>53.27</v>
+      </c>
+      <c r="V5">
+        <v>42.47</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>4.27</v>
+      </c>
+      <c r="Z5">
+        <v>95.73</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>50.6</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>42.47</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>6.93</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>6.93</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>42.47</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>50.6</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>57.53</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>42.47</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>57.53</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>50.6</v>
+      </c>
+      <c r="BJ5">
+        <v>33.3</v>
+      </c>
+      <c r="BK5">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>408646</v>
+        <v>33093</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
         <v>202107</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="E6">
-        <v>121947683</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>8888200371</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J6">
+        <v>4577031000</v>
+      </c>
+      <c r="K6">
         <v>1388.787878787879</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6">
-        <v>4577031000</v>
+      <c r="L6" t="s">
+        <v>81</v>
       </c>
       <c r="M6">
         <v>60521857</v>
@@ -1070,19 +1622,19 @@
         <v>2007558</v>
       </c>
       <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>75.53</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
-        <v>0</v>
+        <v>24.28</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1094,72 +1646,162 @@
         <v>0.19</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>41.61</v>
+      </c>
+      <c r="AA6">
+        <v>50.03</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>75.53</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0.19</v>
+      </c>
+      <c r="AN6">
         <v>24.28</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
         <v>0.14</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>75.53</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>24.28</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>0.05</v>
       </c>
+      <c r="AX6">
+        <v>75.67</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0.05</v>
+      </c>
+      <c r="BB6">
+        <v>24.28</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>75.53</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>20</v>
+      </c>
+      <c r="BK6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>430797</v>
+        <v>34944</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
         <v>202108</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="E7">
-        <v>121947683</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>8888200371</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J7">
+        <v>4577031000</v>
+      </c>
+      <c r="K7">
         <v>1388.787878787879</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>4577031000</v>
+      <c r="L7" t="s">
+        <v>81</v>
       </c>
       <c r="M7">
         <v>24174063</v>
@@ -1171,40 +1813,40 @@
         <v>1608753</v>
       </c>
       <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>79.28</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>20.72</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>58.56</v>
       </c>
-      <c r="S7">
+      <c r="Z7">
         <v>20.72</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1213,54 +1855,144 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>20.72</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>58.56</v>
+      </c>
+      <c r="AI7">
+        <v>20.72</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
         <v>79.28</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>20.72</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>20.72</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>58.56</v>
+      </c>
+      <c r="BB7">
+        <v>20.72</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>20.72</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>20.72</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>41.44</v>
+      </c>
+      <c r="BJ7">
+        <v>66.7</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>452975</v>
+        <v>36794</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
         <v>202109</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2021</v>
       </c>
-      <c r="E8">
-        <v>121947683</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>8888200371</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J8">
+        <v>4577031000</v>
+      </c>
+      <c r="K8">
         <v>1388.787878787879</v>
       </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <v>4577031000</v>
+      <c r="L8" t="s">
+        <v>81</v>
       </c>
       <c r="M8">
         <v>47059461</v>
@@ -1272,96 +2004,186 @@
         <v>1548450</v>
       </c>
       <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>22.5</v>
+      </c>
+      <c r="V8">
+        <v>51.67</v>
+      </c>
+      <c r="W8">
+        <v>25.83</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.97</v>
+      </c>
+      <c r="Z8">
+        <v>73.2</v>
+      </c>
+      <c r="AA8">
+        <v>25.83</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>68.03</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>5.04</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>25.97</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>0.97</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
         <v>5.17</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>93.86</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>0.97</v>
       </c>
+      <c r="AX8">
+        <v>68.03</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>6.01</v>
+      </c>
+      <c r="BB8">
+        <v>25.97</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>68.03</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>47.36</v>
+      </c>
+      <c r="BJ8">
+        <v>66.7</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>475235</v>
+        <v>38649</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
         <v>202110</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="E9">
-        <v>121947683</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>8888200371</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J9">
+        <v>4577031000</v>
+      </c>
+      <c r="K9">
         <v>1388.787878787879</v>
       </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9">
-        <v>4577031000</v>
+      <c r="L9" t="s">
+        <v>81</v>
       </c>
       <c r="M9">
         <v>48832530</v>
@@ -1373,96 +2195,186 @@
         <v>2408250</v>
       </c>
       <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>20.76</v>
+      </c>
+      <c r="W9">
+        <v>79.23999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>81.31</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>18.69</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>60.55</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>3.11</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>15.57</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>20.76</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>20.76</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>79.23999999999999</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>60.55</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>39.45</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>60.55</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>39.45</v>
+      </c>
+      <c r="BJ9">
+        <v>50</v>
+      </c>
+      <c r="BK9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>497519</v>
+        <v>40516</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10">
         <v>202111</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2021</v>
       </c>
-      <c r="E10">
-        <v>121947683</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>8888200371</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J10">
+        <v>4577031000</v>
+      </c>
+      <c r="K10">
         <v>1388.787878787879</v>
       </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10">
-        <v>4577031000</v>
+      <c r="L10" t="s">
+        <v>81</v>
       </c>
       <c r="M10">
         <v>41590775</v>
@@ -1474,96 +2386,186 @@
         <v>1006173</v>
       </c>
       <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>81.86</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>16.15</v>
+      </c>
+      <c r="V10">
+        <v>1.99</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>82.11</v>
+      </c>
+      <c r="AA10">
+        <v>17.89</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>40.87</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>0.12</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>0.12</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>28.57</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>28.57</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>1.74</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>1.86</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>28.7</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>69.44</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0.12</v>
+      </c>
+      <c r="BB10">
+        <v>26.58</v>
+      </c>
+      <c r="BC10">
+        <v>3.73</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>69.44</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>42.73</v>
+      </c>
+      <c r="BJ10">
+        <v>50</v>
+      </c>
+      <c r="BK10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>519843</v>
+        <v>42372</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11">
         <v>202112</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2021</v>
       </c>
-      <c r="E11">
-        <v>121947683</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>8888200371</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J11">
+        <v>4577031000</v>
+      </c>
+      <c r="K11">
         <v>1388.787878787879</v>
       </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11">
-        <v>4577031000</v>
+      <c r="L11" t="s">
+        <v>81</v>
       </c>
       <c r="M11">
         <v>59052722</v>
@@ -1575,7 +2577,7 @@
         <v>1199822</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1584,87 +2586,177 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>43.85</v>
+      </c>
+      <c r="U11">
+        <v>28.96</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>27.19</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>48.72</v>
+      </c>
+      <c r="Z11">
+        <v>51.28</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>7.43</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>2.78</v>
       </c>
-      <c r="U11">
+      <c r="AK11">
         <v>11.16</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>34.78</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>43.85</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>43.85</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>7.43</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>2.78</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>45.94</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>11.16</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>86.06</v>
+      </c>
+      <c r="BC11">
+        <v>2.78</v>
+      </c>
+      <c r="BD11">
+        <v>7.43</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>11.16</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>54.06</v>
+      </c>
+      <c r="BJ11">
+        <v>40</v>
+      </c>
+      <c r="BK11">
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>542137</v>
+        <v>44222</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12">
         <v>202201</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2022</v>
       </c>
-      <c r="E12">
-        <v>121947683</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>8888200371</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J12">
+        <v>4577031000</v>
+      </c>
+      <c r="K12">
         <v>1388.787878787879</v>
       </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
-        <v>4577031000</v>
+      <c r="L12" t="s">
+        <v>81</v>
       </c>
       <c r="M12">
         <v>79920572</v>
@@ -1676,96 +2768,186 @@
         <v>1717990</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>42.77</v>
+      </c>
+      <c r="T12">
+        <v>22.64</v>
+      </c>
+      <c r="U12">
+        <v>13.86</v>
+      </c>
+      <c r="V12">
+        <v>1.3</v>
+      </c>
+      <c r="W12">
+        <v>19.43</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>53.97</v>
+      </c>
+      <c r="Z12">
+        <v>31.39</v>
+      </c>
+      <c r="AA12">
+        <v>14.65</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>81.58</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>0.02</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>4.53</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
         <v>13.86</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>0.02</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>1.3</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>84.81</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>13.86</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>81.58</v>
+      </c>
+      <c r="AY12">
+        <v>0.02</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>1.3</v>
+      </c>
+      <c r="BB12">
+        <v>17.1</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0.02</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>81.58</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>1.3</v>
+      </c>
+      <c r="BI12">
+        <v>20.7</v>
+      </c>
+      <c r="BJ12">
+        <v>50</v>
+      </c>
+      <c r="BK12">
+        <v>16.7</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>564431</v>
+        <v>46067</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
         <v>202202</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2022</v>
       </c>
-      <c r="E13">
-        <v>121947683</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>8888200371</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J13">
+        <v>4577031000</v>
+      </c>
+      <c r="K13">
         <v>1388.787878787879</v>
       </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>4577031000</v>
+      <c r="L13" t="s">
+        <v>81</v>
       </c>
       <c r="M13">
         <v>71146359</v>
@@ -1777,57 +2959,720 @@
         <v>1969347</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>38.08</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.48</v>
+      </c>
+      <c r="V13">
+        <v>54.19</v>
+      </c>
+      <c r="W13">
+        <v>7.25</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>53</v>
+      </c>
+      <c r="Z13">
+        <v>29.08</v>
+      </c>
+      <c r="AA13">
+        <v>17.92</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>43.81</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>16.53</v>
       </c>
-      <c r="V13">
+      <c r="AL13">
         <v>0.2</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>17.92</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>21.54</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>16.53</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>18.4</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>65.06999999999999</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>60.06</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0.29</v>
+      </c>
+      <c r="BA13">
+        <v>18.11</v>
+      </c>
+      <c r="BB13">
+        <v>21.54</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>60.06</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>16.53</v>
+      </c>
+      <c r="BI13">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="BJ13">
+        <v>16.7</v>
+      </c>
+      <c r="BK13">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>47910</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <v>202203</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+      <c r="G14">
+        <v>8888200371</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>4577031000</v>
+      </c>
+      <c r="K14">
+        <v>1388.787878787879</v>
+      </c>
+      <c r="L14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14">
+        <v>85690481</v>
+      </c>
+      <c r="N14">
+        <v>46</v>
+      </c>
+      <c r="O14">
+        <v>1869318</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>16.89</v>
+      </c>
+      <c r="U14">
+        <v>24.16</v>
+      </c>
+      <c r="V14">
+        <v>48.34</v>
+      </c>
+      <c r="W14">
+        <v>10.61</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>16.89</v>
+      </c>
+      <c r="Z14">
+        <v>81.92</v>
+      </c>
+      <c r="AA14">
+        <v>1.19</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>61.5</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>27.89</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>10.61</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>30.01</v>
+      </c>
+      <c r="AU14">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>50.04</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>14.84</v>
+      </c>
+      <c r="BA14">
+        <v>10.61</v>
+      </c>
+      <c r="BB14">
+        <v>24.52</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>46.66</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>19.93</v>
+      </c>
+      <c r="BJ14">
+        <v>57.1</v>
+      </c>
+      <c r="BK14">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>49765</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>202204</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+      <c r="G15">
+        <v>8888200371</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15">
+        <v>4577031000</v>
+      </c>
+      <c r="K15">
+        <v>1388.787878787879</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15">
+        <v>132473481</v>
+      </c>
+      <c r="N15">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>2158864</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>27.02</v>
+      </c>
+      <c r="T15">
+        <v>30.16</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>3.49</v>
+      </c>
+      <c r="W15">
+        <v>39.33</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>38.27</v>
+      </c>
+      <c r="Z15">
+        <v>50.15</v>
+      </c>
+      <c r="AA15">
+        <v>11.58</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>10.47</v>
+      </c>
+      <c r="AG15">
+        <v>42.42</v>
+      </c>
+      <c r="AH15">
+        <v>0.3</v>
+      </c>
+      <c r="AI15">
+        <v>31.37</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>15.45</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>43.05</v>
+      </c>
+      <c r="AU15">
+        <v>56.95</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>37.6</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>11.59</v>
+      </c>
+      <c r="BA15">
+        <v>31.46</v>
+      </c>
+      <c r="BB15">
+        <v>19.35</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>37.6</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>12.31</v>
+      </c>
+      <c r="BI15">
+        <v>39.35</v>
+      </c>
+      <c r="BJ15">
+        <v>50</v>
+      </c>
+      <c r="BK15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>51618</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>202205</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+      <c r="G16">
+        <v>8888200371</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>4577031000</v>
+      </c>
+      <c r="K16">
+        <v>1388.787878787879</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>119178145</v>
+      </c>
+      <c r="N16">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <v>2785610</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>53.04</v>
+      </c>
+      <c r="T16">
+        <v>20.25</v>
+      </c>
+      <c r="U16">
+        <v>26.71</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>53.78</v>
+      </c>
+      <c r="Z16">
+        <v>31.23</v>
+      </c>
+      <c r="AA16">
+        <v>14.98</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>4.52</v>
+      </c>
+      <c r="AG16">
+        <v>13.46</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>15.73</v>
+      </c>
+      <c r="AJ16">
+        <v>10.81</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>26.71</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>28.76</v>
+      </c>
+      <c r="AO16">
+        <v>0.02</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>13.79</v>
+      </c>
+      <c r="AU16">
+        <v>33.71</v>
+      </c>
+      <c r="AV16">
+        <v>52.48</v>
+      </c>
+      <c r="AW16">
+        <v>0.02</v>
+      </c>
+      <c r="AX16">
+        <v>44.69</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>28.76</v>
+      </c>
+      <c r="BB16">
+        <v>15.74</v>
+      </c>
+      <c r="BC16">
+        <v>10.81</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>44.69</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>27.27</v>
+      </c>
+      <c r="BJ16">
+        <v>50</v>
+      </c>
+      <c r="BK16">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4577031000.xlsx
+++ b/시장분석용_정보/시장분석용_4577031000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>25705</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202103</v>
@@ -696,10 +600,10 @@
         <v>8888200371</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4577031000</v>
@@ -708,7 +612,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>24406764</v>
@@ -720,49 +624,49 @@
         <v>1205925</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>96.12</v>
       </c>
       <c r="R2">
-        <v>90.56</v>
+        <v>2.5</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1.38</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>2.5</v>
       </c>
-      <c r="U2">
-        <v>1.38</v>
-      </c>
-      <c r="V2">
-        <v>5.56</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>3.88</v>
-      </c>
-      <c r="Z2">
-        <v>96.12</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>96.12</v>
-      </c>
-      <c r="AH2">
-        <v>2.5</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>1.38</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>2.5</v>
-      </c>
-      <c r="AS2">
-        <v>97.5</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>27547</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202104</v>
@@ -842,10 +698,10 @@
         <v>8888200371</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4577031000</v>
@@ -854,7 +710,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>32580373</v>
@@ -866,50 +722,50 @@
         <v>2135180</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1.01</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>100</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>98.98999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>1.01</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>100</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>29393</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202105</v>
@@ -988,10 +796,10 @@
         <v>8888200371</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4577031000</v>
@@ -1000,7 +808,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>43169895</v>
@@ -1012,22 +820,22 @@
         <v>4088550</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>70.87</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1039,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>70.87</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1054,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1065,64 +873,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>100</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>100</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>31243</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202106</v>
@@ -1134,10 +894,10 @@
         <v>8888200371</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4577031000</v>
@@ -1146,7 +906,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>30139572</v>
@@ -1158,117 +918,69 @@
         <v>1482178</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>50.6</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>42.47</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>4.27</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>53.27</v>
+        <v>0</v>
       </c>
       <c r="U5">
+        <v>6.93</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>6.93</v>
+      </c>
+      <c r="AC5">
         <v>42.47</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>4.27</v>
-      </c>
-      <c r="Y5">
-        <v>95.73</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="AE5">
-        <v>50.6</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>42.47</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>6.93</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>6.93</v>
-      </c>
-      <c r="AS5">
-        <v>42.47</v>
-      </c>
-      <c r="AT5">
-        <v>50.6</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>33093</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202107</v>
@@ -1280,10 +992,10 @@
         <v>8888200371</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4577031000</v>
@@ -1292,7 +1004,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>60521857</v>
@@ -1304,7 +1016,7 @@
         <v>2007558</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>75.53</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1313,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>75.53</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>24.28</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1328,16 +1040,16 @@
         <v>0.19</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>24.28</v>
       </c>
       <c r="X6">
-        <v>8.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>41.61</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>50.03</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1346,75 +1058,27 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>75.53</v>
       </c>
       <c r="AE6">
-        <v>75.53</v>
+        <v>24.28</v>
       </c>
       <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0.19</v>
-      </c>
-      <c r="AM6">
-        <v>24.28</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0.14</v>
-      </c>
-      <c r="AT6">
-        <v>75.53</v>
-      </c>
-      <c r="AU6">
-        <v>24.28</v>
-      </c>
-      <c r="AV6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>34944</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202108</v>
@@ -1426,10 +1090,10 @@
         <v>8888200371</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4577031000</v>
@@ -1438,7 +1102,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>24174063</v>
@@ -1450,117 +1114,69 @@
         <v>1608753</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>20.72</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>58.56</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>79.28</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="AD7">
         <v>20.72</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>58.56</v>
-      </c>
-      <c r="Y7">
-        <v>20.72</v>
-      </c>
-      <c r="Z7">
-        <v>20.72</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
-        <v>20.72</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>58.56</v>
-      </c>
-      <c r="AH7">
-        <v>20.72</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>79.28</v>
-      </c>
-      <c r="AT7">
-        <v>20.72</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>36794</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202109</v>
@@ -1572,10 +1188,10 @@
         <v>8888200371</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4577031000</v>
@@ -1584,7 +1200,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>47059461</v>
@@ -1596,117 +1212,69 @@
         <v>1548450</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>68.03</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>25.97</v>
       </c>
       <c r="T8">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>51.67</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>25.83</v>
+        <v>0.97</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>5.17</v>
+      </c>
+      <c r="AD8">
+        <v>93.86</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.97</v>
       </c>
-      <c r="Y8">
-        <v>73.2</v>
-      </c>
-      <c r="Z8">
-        <v>25.83</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>68.03</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>5.04</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>25.97</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0.97</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>5.17</v>
-      </c>
-      <c r="AT8">
-        <v>93.86</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0.97</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>38649</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202110</v>
@@ -1718,10 +1286,10 @@
         <v>8888200371</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4577031000</v>
@@ -1730,7 +1298,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>48832530</v>
@@ -1742,7 +1310,7 @@
         <v>2408250</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>60.55</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1751,108 +1319,60 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>15.57</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>20.76</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>20.76</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>79.23999999999999</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>81.31</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>18.69</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
-        <v>60.55</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>3.11</v>
-      </c>
-      <c r="AI9">
-        <v>15.57</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>20.76</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>20.76</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>79.23999999999999</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>40516</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202111</v>
@@ -1864,10 +1384,10 @@
         <v>8888200371</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4577031000</v>
@@ -1876,7 +1396,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>41590775</v>
@@ -1888,25 +1408,25 @@
         <v>1006173</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>40.87</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R10">
-        <v>81.86</v>
+        <v>0.12</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="T10">
-        <v>16.15</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.99</v>
+        <v>28.57</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1915,90 +1435,42 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Y10">
-        <v>82.11</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>17.89</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="AE10">
-        <v>40.87</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0.12</v>
-      </c>
-      <c r="AH10">
-        <v>0.12</v>
-      </c>
-      <c r="AI10">
-        <v>28.57</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>28.57</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>1.74</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>1.86</v>
-      </c>
-      <c r="AS10">
-        <v>28.7</v>
-      </c>
-      <c r="AT10">
-        <v>69.44</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>42372</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202112</v>
@@ -2010,10 +1482,10 @@
         <v>8888200371</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4577031000</v>
@@ -2022,7 +1494,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>59052722</v>
@@ -2034,7 +1506,7 @@
         <v>1199822</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2043,28 +1515,28 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="S11">
+        <v>2.78</v>
+      </c>
+      <c r="T11">
+        <v>11.16</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>34.78</v>
+      </c>
+      <c r="X11">
         <v>43.85</v>
       </c>
-      <c r="T11">
-        <v>28.96</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>27.19</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>48.72</v>
-      </c>
       <c r="Y11">
-        <v>51.28</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2073,78 +1545,30 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>43.85</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>45.94</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>7.43</v>
-      </c>
-      <c r="AI11">
-        <v>2.78</v>
-      </c>
-      <c r="AJ11">
-        <v>11.16</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>34.78</v>
-      </c>
-      <c r="AN11">
-        <v>43.85</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>43.85</v>
-      </c>
-      <c r="AS11">
-        <v>7.43</v>
-      </c>
-      <c r="AT11">
-        <v>2.78</v>
-      </c>
-      <c r="AU11">
-        <v>45.94</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>44222</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202201</v>
@@ -2156,10 +1580,10 @@
         <v>8888200371</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4577031000</v>
@@ -2168,7 +1592,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>79920572</v>
@@ -2180,117 +1604,69 @@
         <v>1717990</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>81.58</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R12">
-        <v>42.77</v>
+        <v>4.53</v>
       </c>
       <c r="S12">
-        <v>22.64</v>
+        <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>13.86</v>
       </c>
-      <c r="U12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.02</v>
+      </c>
+      <c r="AC12">
         <v>1.3</v>
       </c>
-      <c r="V12">
-        <v>19.43</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>53.97</v>
-      </c>
-      <c r="Y12">
-        <v>31.39</v>
-      </c>
-      <c r="Z12">
-        <v>14.65</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
-        <v>0</v>
+        <v>84.81</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="AF12">
-        <v>81.58</v>
-      </c>
-      <c r="AG12">
-        <v>0.02</v>
-      </c>
-      <c r="AH12">
-        <v>4.53</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>13.86</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0.02</v>
-      </c>
-      <c r="AS12">
-        <v>1.3</v>
-      </c>
-      <c r="AT12">
-        <v>84.81</v>
-      </c>
-      <c r="AU12">
-        <v>13.86</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>46067</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202202</v>
@@ -2302,10 +1678,10 @@
         <v>8888200371</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4577031000</v>
@@ -2314,7 +1690,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>71146359</v>
@@ -2326,117 +1702,69 @@
         <v>1969347</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>43.81</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>38.08</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.48</v>
+        <v>16.53</v>
       </c>
       <c r="U13">
-        <v>54.19</v>
+        <v>0.2</v>
       </c>
       <c r="V13">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>17.92</v>
       </c>
       <c r="X13">
-        <v>53</v>
+        <v>21.54</v>
       </c>
       <c r="Y13">
-        <v>29.08</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>17.92</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>16.53</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>43.81</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>16.53</v>
-      </c>
-      <c r="AK13">
-        <v>0.2</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>17.92</v>
-      </c>
-      <c r="AN13">
-        <v>21.54</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>16.53</v>
-      </c>
-      <c r="AS13">
-        <v>18.4</v>
-      </c>
-      <c r="AT13">
-        <v>65.06999999999999</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>47910</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202203</v>
@@ -2448,10 +1776,10 @@
         <v>8888200371</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4577031000</v>
@@ -2460,7 +1788,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>85690481</v>
@@ -2472,40 +1800,40 @@
         <v>1869318</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>27.89</v>
       </c>
       <c r="S14">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>24.16</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>48.34</v>
+        <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>10.61</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
       <c r="X14">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>81.92</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2514,75 +1842,27 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>30.01</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>61.5</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>27.89</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>10.61</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>30.01</v>
-      </c>
-      <c r="AT14">
-        <v>69.98999999999999</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>49765</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202204</v>
@@ -2594,10 +1874,10 @@
         <v>8888200371</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4577031000</v>
@@ -2606,7 +1886,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>132473481</v>
@@ -2618,40 +1898,40 @@
         <v>2158864</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>10.47</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>42.42</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R15">
-        <v>27.02</v>
+        <v>31.37</v>
       </c>
       <c r="S15">
-        <v>30.16</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>39.33</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>15.45</v>
       </c>
       <c r="X15">
-        <v>38.27</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>50.15</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2660,75 +1940,27 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>43.05</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>56.95</v>
       </c>
       <c r="AE15">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>42.42</v>
-      </c>
-      <c r="AG15">
-        <v>0.3</v>
-      </c>
-      <c r="AH15">
-        <v>31.37</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>15.45</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>43.05</v>
-      </c>
-      <c r="AT15">
-        <v>56.95</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>51618</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202205</v>
@@ -2740,10 +1972,10 @@
         <v>8888200371</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4577031000</v>
@@ -2752,7 +1984,7 @@
         <v>1388.787878787879</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>119178145</v>
@@ -2764,40 +1996,40 @@
         <v>2785610</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>4.52</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>13.46</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>53.04</v>
+        <v>15.73</v>
       </c>
       <c r="S16">
-        <v>20.25</v>
+        <v>10.81</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>26.71</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>28.76</v>
       </c>
       <c r="X16">
-        <v>53.78</v>
+        <v>0.02</v>
       </c>
       <c r="Y16">
-        <v>31.23</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2806,63 +2038,15 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>33.71</v>
       </c>
       <c r="AE16">
-        <v>4.52</v>
+        <v>52.48</v>
       </c>
       <c r="AF16">
-        <v>13.46</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>15.73</v>
-      </c>
-      <c r="AI16">
-        <v>10.81</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>26.71</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>28.76</v>
-      </c>
-      <c r="AN16">
-        <v>0.02</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>13.79</v>
-      </c>
-      <c r="AT16">
-        <v>33.71</v>
-      </c>
-      <c r="AU16">
-        <v>52.48</v>
-      </c>
-      <c r="AV16">
         <v>0.02</v>
       </c>
     </row>
